--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1527390.480403248</v>
+        <v>1562709.235729016</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914459</v>
+        <v>426806.9758914462</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +673,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>58.39471844666272</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>57.16776090941368</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>110.0817264605106</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>99.52914681518106</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>147.2379120664689</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>140.3787069980184</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>71.01467844038824</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H8" t="n">
-        <v>50.29171516770224</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,7 +1183,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.9049866160227</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>69.90197782146215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>221.8536391086089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S11" t="n">
         <v>179.4658614532381</v>
@@ -1426,7 +1426,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>329.2324704260173</v>
       </c>
     </row>
     <row r="12">
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>17.79417311172712</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>64.75880519958775</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.239591316294</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>74.15307578127785</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>65.88892493459552</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>160.4752923549255</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>330.6148444382396</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>109.2563341216243</v>
       </c>
       <c r="G15" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>17.44731957864619</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
         <v>197.3677099213027</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>10.28699850038228</v>
       </c>
       <c r="U16" t="n">
-        <v>23.24279192496763</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>194.7564664992821</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>208.7251727113017</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>100.8367104035704</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.18674943245854</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>57.71478864212023</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>13.08993799274015</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>85.73250849645112</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>101.0236645980883</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>177.8382517141046</v>
+        <v>159.3388108552989</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>74.15307578127785</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>132.2037233045428</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>372.3372057966914</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>203.42989634031</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,10 +2399,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>56.22893659596764</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S24" t="n">
         <v>158.7937537960548</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>105.8231508303655</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>5.576415288187487</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>345.1298093264156</v>
       </c>
       <c r="Y26" t="n">
-        <v>126.8203310804445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>6.098631347229997</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2648,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>145.4297492890001</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>146.5623749521073</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>326.1924309016296</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>56.0481979055257</v>
+        <v>166.1844700356772</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
         <v>65.50479675552441</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.33191364804614</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>92.23683576037105</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.8957288909827</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>141.605924235581</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>47.36031653995597</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>145.2203129027692</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>132.792078331</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.141326929176249</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>47.47529300550318</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>345.1839864002923</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>112.4609767103008</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S36" t="n">
-        <v>122.9808755242959</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T36" t="n">
         <v>197.3677099213027</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>111.018817129994</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>153.9561866171905</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>325.4630140795637</v>
+        <v>127.6570108926888</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>115.0023163827308</v>
       </c>
       <c r="V40" t="n">
-        <v>85.73493885277919</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>59.48642353016224</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>222.1931198058183</v>
       </c>
       <c r="G41" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>8.14211163852981</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>28.58965000103588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>65.50479675552441</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>68.53353193096707</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>73.90328094029422</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>372.3372057966914</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>26.73110927253575</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>60.25363614828158</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4064,19 +4064,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>132.203723304543</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>13.08993799274038</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>577.2332497330343</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="C2" t="n">
-        <v>577.2332497330343</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="D2" t="n">
-        <v>333.7844730889342</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="E2" t="n">
-        <v>333.7844730889342</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F2" t="n">
-        <v>90.33569644483418</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y2" t="n">
-        <v>577.2332497330343</v>
+        <v>533.7059962668447</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>852.8634924192114</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>588.9357897816847</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>588.9357897816847</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>353.783681549942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4473,22 +4473,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4546,7 +4546,7 @@
         <v>509.8046290289238</v>
       </c>
       <c r="C5" t="n">
-        <v>266.3558523848238</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D5" t="n">
         <v>266.3558523848238</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4679,13 +4679,13 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>110.334904905842</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W6" t="n">
-        <v>110.334904905842</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X6" t="n">
         <v>110.334904905842</v>
@@ -4743,28 +4743,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
         <v>41.77557929797318</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.5536560184564</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C8" t="n">
-        <v>104.5536560184564</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D8" t="n">
-        <v>104.5536560184564</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E8" t="n">
-        <v>104.5536560184564</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F8" t="n">
-        <v>97.60815526925295</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>82.15084464790441</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>348.0024326625565</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>360.9818047568714</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>360.9818047568714</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4892,43 +4892,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>298.4948343740486</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>90.64333416851576</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>820.7988449929635</v>
+        <v>998.0661903063665</v>
       </c>
       <c r="C11" t="n">
-        <v>596.7042600347727</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="D11" t="n">
-        <v>596.7042600347727</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="E11" t="n">
-        <v>210.9160074365284</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="F11" t="n">
-        <v>210.9160074365284</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G11" t="n">
         <v>210.9160074365284</v>
@@ -5041,13 +5041,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
@@ -5074,19 +5074,19 @@
         <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>1971.003775293977</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V11" t="n">
-        <v>1971.003775293977</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W11" t="n">
-        <v>1971.003775293977</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="X11" t="n">
-        <v>1597.538017032897</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="Y11" t="n">
-        <v>1207.398685057085</v>
+        <v>1384.666030370488</v>
       </c>
     </row>
     <row r="12">
@@ -5105,40 +5105,40 @@
         <v>398.7971326015548</v>
       </c>
       <c r="E12" t="n">
-        <v>239.5596775960993</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="F12" t="n">
-        <v>221.5857653620315</v>
+        <v>252.2625746284398</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>114.2326870776014</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>285.1110033225004</v>
+        <v>161.1406371339194</v>
       </c>
       <c r="L12" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N12" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5208,43 +5208,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O13" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T13" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U13" t="n">
-        <v>640.6381696807582</v>
+        <v>123.7218492813288</v>
       </c>
       <c r="V13" t="n">
-        <v>385.9536814748714</v>
+        <v>123.7218492813288</v>
       </c>
       <c r="W13" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X13" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1706.139985705832</v>
+        <v>1007.69016482438</v>
       </c>
       <c r="C14" t="n">
-        <v>1337.17746876542</v>
+        <v>1007.69016482438</v>
       </c>
       <c r="D14" t="n">
-        <v>1337.17746876542</v>
+        <v>1007.69016482438</v>
       </c>
       <c r="E14" t="n">
-        <v>951.3892161671761</v>
+        <v>621.901912226136</v>
       </c>
       <c r="F14" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G14" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H14" t="n">
         <v>210.9160074365284</v>
@@ -5278,7 +5278,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K14" t="n">
         <v>412.307967997759</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>2040.094374027286</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U14" t="n">
-        <v>2040.094374027286</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="V14" t="n">
-        <v>2040.094374027286</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="W14" t="n">
-        <v>2040.094374027286</v>
+        <v>1837.849724692176</v>
       </c>
       <c r="X14" t="n">
-        <v>2040.094374027286</v>
+        <v>1464.383966431096</v>
       </c>
       <c r="Y14" t="n">
-        <v>1706.139985705832</v>
+        <v>1074.244634455285</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>940.2321985945478</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C15" t="n">
-        <v>765.7791693134208</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D15" t="n">
-        <v>616.8447596521695</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E15" t="n">
-        <v>457.607304646714</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F15" t="n">
-        <v>311.072746673599</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G15" t="n">
-        <v>173.0428591227606</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H15" t="n">
-        <v>66.44330766250891</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
@@ -5360,22 +5360,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L15" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M15" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N15" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O15" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
@@ -5384,25 +5384,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2440.987626628164</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T15" t="n">
-        <v>2241.626303475332</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U15" t="n">
-        <v>2013.448799545047</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V15" t="n">
-        <v>1778.296691313304</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W15" t="n">
-        <v>1524.059334585103</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X15" t="n">
-        <v>1316.20783437957</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y15" t="n">
-        <v>1108.447535614616</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>198.936391944899</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="C16" t="n">
-        <v>198.936391944899</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="D16" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="E16" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F16" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G16" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H16" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I16" t="n">
         <v>48.81975253256327</v>
@@ -5445,43 +5445,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O16" t="n">
-        <v>573.6740222801511</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q16" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R16" t="n">
-        <v>450.1511924226979</v>
+        <v>487.976491396509</v>
       </c>
       <c r="S16" t="n">
-        <v>450.1511924226979</v>
+        <v>487.976491396509</v>
       </c>
       <c r="T16" t="n">
-        <v>222.4139595458764</v>
+        <v>477.5855838203653</v>
       </c>
       <c r="U16" t="n">
-        <v>198.936391944899</v>
+        <v>477.5855838203653</v>
       </c>
       <c r="V16" t="n">
-        <v>198.936391944899</v>
+        <v>477.5855838203653</v>
       </c>
       <c r="W16" t="n">
-        <v>198.936391944899</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="X16" t="n">
-        <v>198.936391944899</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.936391944899</v>
+        <v>188.1684137834047</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1267.631526924731</v>
+        <v>1605.775798630602</v>
       </c>
       <c r="C17" t="n">
-        <v>898.669009984319</v>
+        <v>1236.813281690191</v>
       </c>
       <c r="D17" t="n">
-        <v>540.4033113775685</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E17" t="n">
-        <v>540.4033113775685</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F17" t="n">
-        <v>540.4033113775685</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G17" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H17" t="n">
         <v>210.9160074365284</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T17" t="n">
-        <v>2221.37302195985</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U17" t="n">
-        <v>2221.37302195985</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="V17" t="n">
-        <v>2010.539514170657</v>
+        <v>1605.775798630602</v>
       </c>
       <c r="W17" t="n">
-        <v>1657.770858900542</v>
+        <v>1605.775798630602</v>
       </c>
       <c r="X17" t="n">
-        <v>1657.770858900542</v>
+        <v>1605.775798630602</v>
       </c>
       <c r="Y17" t="n">
-        <v>1267.631526924731</v>
+        <v>1605.775798630602</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>779.8344674874215</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C18" t="n">
-        <v>605.3814382062945</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D18" t="n">
-        <v>456.4470285450433</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E18" t="n">
-        <v>297.2095735395878</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F18" t="n">
-        <v>150.6750155664728</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G18" t="n">
-        <v>150.6750155664728</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H18" t="n">
         <v>48.81975253256327</v>
@@ -5600,16 +5600,16 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L18" t="n">
-        <v>728.4044351658748</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M18" t="n">
         <v>1222.807150561437</v>
       </c>
       <c r="N18" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O18" t="n">
-        <v>2158.207869599013</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P18" t="n">
         <v>2283.899498973758</v>
@@ -5618,28 +5618,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2440.987626628164</v>
+        <v>2415.546465585276</v>
       </c>
       <c r="S18" t="n">
-        <v>2280.589895521037</v>
+        <v>2255.14873447815</v>
       </c>
       <c r="T18" t="n">
-        <v>2081.228572368206</v>
+        <v>2055.787411325319</v>
       </c>
       <c r="U18" t="n">
-        <v>1853.051068437921</v>
+        <v>1827.609907395033</v>
       </c>
       <c r="V18" t="n">
-        <v>1617.898960206178</v>
+        <v>1592.45779916329</v>
       </c>
       <c r="W18" t="n">
-        <v>1363.661603477976</v>
+        <v>1338.220442435089</v>
       </c>
       <c r="X18" t="n">
-        <v>1155.810103272443</v>
+        <v>1130.368942229556</v>
       </c>
       <c r="Y18" t="n">
-        <v>948.0498045074896</v>
+        <v>922.6086434646021</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>412.6486187827409</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C19" t="n">
-        <v>412.6486187827409</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D19" t="n">
-        <v>412.6486187827409</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E19" t="n">
-        <v>412.6486187827409</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F19" t="n">
-        <v>265.7586712848305</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G19" t="n">
-        <v>265.7586712848305</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H19" t="n">
-        <v>107.1175188377352</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U19" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V19" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W19" t="n">
-        <v>640.6381696807582</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="X19" t="n">
-        <v>412.6486187827409</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y19" t="n">
-        <v>412.6486187827409</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>835.9699354024012</v>
+        <v>1241.358914440539</v>
       </c>
       <c r="C20" t="n">
-        <v>467.0074184619895</v>
+        <v>1154.76042100978</v>
       </c>
       <c r="D20" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="E20" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F20" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G20" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H20" t="n">
         <v>48.81975253256327</v>
@@ -5755,10 +5755,10 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K20" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5782,22 +5782,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>2338.943520973529</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U20" t="n">
-        <v>2338.943520973529</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V20" t="n">
-        <v>2338.943520973529</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W20" t="n">
-        <v>1986.174865703415</v>
+        <v>1614.824672701619</v>
       </c>
       <c r="X20" t="n">
-        <v>1612.709107442335</v>
+        <v>1241.358914440539</v>
       </c>
       <c r="Y20" t="n">
-        <v>1222.569775466523</v>
+        <v>1241.358914440539</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L21" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N21" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O21" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P21" t="n">
         <v>2283.899498973758</v>
@@ -5855,13 +5855,13 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S21" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2241.626303475332</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="U21" t="n">
         <v>2061.991705784318</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G22" t="n">
         <v>48.81975253256327</v>
@@ -5940,22 +5940,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="T22" t="n">
-        <v>412.9009368039365</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U22" t="n">
-        <v>123.7218492813288</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V22" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="X22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1221.692097593841</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="C23" t="n">
-        <v>1221.692097593841</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="D23" t="n">
-        <v>1221.692097593841</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="E23" t="n">
-        <v>835.9038449955965</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="F23" t="n">
-        <v>424.9179402059889</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K23" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2371.897027894854</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U23" t="n">
-        <v>2371.897027894854</v>
+        <v>2015.888278181759</v>
       </c>
       <c r="V23" t="n">
-        <v>2371.897027894854</v>
+        <v>1684.825390838189</v>
       </c>
       <c r="W23" t="n">
-        <v>2371.897027894854</v>
+        <v>1332.056735568075</v>
       </c>
       <c r="X23" t="n">
-        <v>1998.431269633774</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="Y23" t="n">
-        <v>1608.291937657963</v>
+        <v>958.5909773069948</v>
       </c>
     </row>
     <row r="24">
@@ -6047,46 +6047,46 @@
         <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628061</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E24" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F24" t="n">
-        <v>93.02511962298431</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G24" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H24" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I24" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658748</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M24" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N24" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>533.7460981349344</v>
+        <v>345.8263394428094</v>
       </c>
       <c r="C25" t="n">
-        <v>364.8099152070275</v>
+        <v>345.8263394428094</v>
       </c>
       <c r="D25" t="n">
-        <v>364.8099152070275</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E25" t="n">
-        <v>364.8099152070275</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F25" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G25" t="n">
         <v>48.81975253256327</v>
@@ -6156,43 +6156,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O25" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T25" t="n">
-        <v>533.7460981349344</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U25" t="n">
-        <v>533.7460981349344</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V25" t="n">
-        <v>533.7460981349344</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W25" t="n">
-        <v>533.7460981349344</v>
+        <v>345.8263394428094</v>
       </c>
       <c r="X25" t="n">
-        <v>533.7460981349344</v>
+        <v>345.8263394428094</v>
       </c>
       <c r="Y25" t="n">
-        <v>533.7460981349344</v>
+        <v>345.8263394428094</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1263.781575849841</v>
+        <v>1154.76042100978</v>
       </c>
       <c r="C26" t="n">
-        <v>1263.781575849841</v>
+        <v>1154.76042100978</v>
       </c>
       <c r="D26" t="n">
-        <v>1263.781575849841</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="E26" t="n">
-        <v>877.9933232515971</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F26" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H26" t="n">
         <v>48.81975253256327</v>
@@ -6229,10 +6229,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U26" t="n">
-        <v>2118.117333906737</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V26" t="n">
-        <v>2118.117333906737</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W26" t="n">
-        <v>1765.348678636623</v>
+        <v>1503.376390026361</v>
       </c>
       <c r="X26" t="n">
-        <v>1391.882920375543</v>
+        <v>1154.76042100978</v>
       </c>
       <c r="Y26" t="n">
-        <v>1263.781575849841</v>
+        <v>1154.76042100978</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D27" t="n">
-        <v>398.7971326015548</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E27" t="n">
-        <v>239.5596775960993</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F27" t="n">
-        <v>93.02511962298431</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G27" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H27" t="n">
         <v>48.81975253256327</v>
@@ -6305,52 +6305,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L27" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N27" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O27" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S27" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X27" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D28" t="n">
-        <v>490.5215302684225</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E28" t="n">
-        <v>342.6084366860293</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F28" t="n">
-        <v>195.718489188119</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G28" t="n">
         <v>48.81975253256327</v>
@@ -6393,43 +6393,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N28" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O28" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S28" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="T28" t="n">
-        <v>640.6381696807582</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="U28" t="n">
-        <v>640.6381696807582</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="V28" t="n">
-        <v>640.6381696807582</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="W28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1207.480627192637</v>
+        <v>764.0953090718475</v>
       </c>
       <c r="C29" t="n">
-        <v>1207.480627192637</v>
+        <v>764.0953090718475</v>
       </c>
       <c r="D29" t="n">
-        <v>1207.480627192637</v>
+        <v>764.0953090718475</v>
       </c>
       <c r="E29" t="n">
-        <v>1207.480627192637</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F29" t="n">
-        <v>796.4947224030295</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G29" t="n">
         <v>378.3070564736033</v>
@@ -6487,28 +6487,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T29" t="n">
-        <v>2315.282686576141</v>
+        <v>2091.845877649461</v>
       </c>
       <c r="U29" t="n">
-        <v>2315.282686576141</v>
+        <v>1838.066183661344</v>
       </c>
       <c r="V29" t="n">
-        <v>1984.21979923257</v>
+        <v>1507.003296317773</v>
       </c>
       <c r="W29" t="n">
-        <v>1984.21979923257</v>
+        <v>1154.234641047659</v>
       </c>
       <c r="X29" t="n">
-        <v>1984.21979923257</v>
+        <v>1154.234641047659</v>
       </c>
       <c r="Y29" t="n">
-        <v>1594.080467256759</v>
+        <v>764.0953090718475</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>744.1456658227286</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C30" t="n">
-        <v>569.6926365416016</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D30" t="n">
-        <v>420.7582268803504</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E30" t="n">
-        <v>261.5207718748949</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F30" t="n">
-        <v>114.9862139017798</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G30" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H30" t="n">
         <v>114.9862139017798</v>
@@ -6542,52 +6542,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L30" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2405.29882496347</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2244.901093856344</v>
+        <v>2290.169209714603</v>
       </c>
       <c r="T30" t="n">
-        <v>2045.539770703513</v>
+        <v>2290.169209714603</v>
       </c>
       <c r="U30" t="n">
-        <v>1817.362266773227</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V30" t="n">
-        <v>1582.210158541485</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W30" t="n">
-        <v>1327.972801813283</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X30" t="n">
-        <v>1120.12130160775</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y30" t="n">
-        <v>912.3610028427966</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.81975253256327</v>
+        <v>412.6486187827406</v>
       </c>
       <c r="C31" t="n">
-        <v>48.81975253256327</v>
+        <v>412.6486187827406</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256327</v>
+        <v>412.6486187827406</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G31" t="n">
         <v>48.81975253256327</v>
@@ -6630,43 +6630,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N31" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O31" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X31" t="n">
-        <v>412.6486187827409</v>
+        <v>412.6486187827406</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.8560396392108</v>
+        <v>412.6486187827406</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1410.468760600113</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="C32" t="n">
-        <v>1410.468760600113</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="D32" t="n">
-        <v>1410.468760600113</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="E32" t="n">
-        <v>1024.680508001869</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="F32" t="n">
-        <v>613.6946032122614</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G32" t="n">
-        <v>195.5069372828352</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K32" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L32" t="n">
         <v>795.0052981540045</v>
@@ -6718,7 +6718,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
@@ -6730,22 +6730,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U32" t="n">
-        <v>2187.207932640047</v>
+        <v>2087.239609504295</v>
       </c>
       <c r="V32" t="n">
-        <v>2187.207932640047</v>
+        <v>1756.176722160724</v>
       </c>
       <c r="W32" t="n">
-        <v>2187.207932640047</v>
+        <v>1756.176722160724</v>
       </c>
       <c r="X32" t="n">
-        <v>2187.207932640047</v>
+        <v>1756.176722160724</v>
       </c>
       <c r="Y32" t="n">
-        <v>1797.068600664235</v>
+        <v>1756.176722160724</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L33" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N33" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O33" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>196.8625555144901</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C34" t="n">
-        <v>196.8625555144901</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D34" t="n">
-        <v>196.8625555144901</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E34" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F34" t="n">
         <v>48.81975253256327</v>
@@ -6867,43 +6867,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N34" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O34" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S34" t="n">
-        <v>424.5997883913116</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T34" t="n">
-        <v>196.8625555144901</v>
+        <v>592.6833282610578</v>
       </c>
       <c r="U34" t="n">
-        <v>196.8625555144901</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="V34" t="n">
-        <v>196.8625555144901</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W34" t="n">
-        <v>196.8625555144901</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X34" t="n">
-        <v>196.8625555144901</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.8625555144901</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1194.264603254044</v>
+        <v>1214.556426860827</v>
       </c>
       <c r="C35" t="n">
-        <v>1194.264603254044</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D35" t="n">
-        <v>1194.264603254044</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E35" t="n">
-        <v>808.4763506557995</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F35" t="n">
-        <v>397.4904458661919</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I35" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
         <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977593</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O35" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P35" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q35" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2190.618379962291</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U35" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V35" t="n">
-        <v>1971.003775293977</v>
+        <v>2327.390680456142</v>
       </c>
       <c r="W35" t="n">
-        <v>1971.003775293977</v>
+        <v>1974.622025186028</v>
       </c>
       <c r="X35" t="n">
-        <v>1971.003775293977</v>
+        <v>1601.156266924949</v>
       </c>
       <c r="Y35" t="n">
-        <v>1580.864443318166</v>
+        <v>1601.156266924949</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C36" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D36" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E36" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F36" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G36" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H36" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I36" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
         <v>112.9860412505444</v>
@@ -7022,46 +7022,46 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658748</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M36" t="n">
         <v>1222.807150561437</v>
       </c>
       <c r="N36" t="n">
-        <v>1746.002248079784</v>
+        <v>1746.002248079783</v>
       </c>
       <c r="O36" t="n">
-        <v>2158.207869599013</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P36" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S36" t="n">
-        <v>2316.764520037966</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T36" t="n">
-        <v>2117.403196885135</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U36" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V36" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W36" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X36" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y36" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>458.9897048505185</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="C37" t="n">
-        <v>458.9897048505185</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="D37" t="n">
-        <v>308.8730654381827</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="E37" t="n">
-        <v>160.9599718557896</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="F37" t="n">
-        <v>48.81975253256328</v>
+        <v>204.331052145887</v>
       </c>
       <c r="G37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K37" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L37" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O37" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W37" t="n">
-        <v>640.6381696807582</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="X37" t="n">
-        <v>640.6381696807582</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="Y37" t="n">
-        <v>640.6381696807582</v>
+        <v>351.2209996437974</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1434.285791293052</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="C38" t="n">
-        <v>1065.32327435264</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="D38" t="n">
-        <v>707.0575757458898</v>
+        <v>563.5544807799881</v>
       </c>
       <c r="E38" t="n">
-        <v>707.0575757458898</v>
+        <v>177.7662281817439</v>
       </c>
       <c r="F38" t="n">
-        <v>707.0575757458898</v>
+        <v>177.7662281817439</v>
       </c>
       <c r="G38" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H38" t="n">
         <v>48.81975253256327</v>
@@ -7177,10 +7177,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U38" t="n">
-        <v>2118.117333906737</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V38" t="n">
-        <v>1787.054446563166</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W38" t="n">
-        <v>1434.285791293052</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X38" t="n">
-        <v>1434.285791293052</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y38" t="n">
-        <v>1434.285791293052</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="39">
@@ -7259,16 +7259,16 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>728.4044351658748</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M39" t="n">
         <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O39" t="n">
-        <v>2158.207869599013</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
         <v>2283.899498973758</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.81975253256327</v>
+        <v>524.4742137386056</v>
       </c>
       <c r="C40" t="n">
-        <v>48.81975253256327</v>
+        <v>524.4742137386056</v>
       </c>
       <c r="D40" t="n">
-        <v>48.81975253256327</v>
+        <v>524.4742137386056</v>
       </c>
       <c r="E40" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="F40" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H40" t="n">
         <v>48.81975253256327</v>
@@ -7341,43 +7341,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O40" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P40" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q40" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R40" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S40" t="n">
-        <v>424.5997883913116</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T40" t="n">
-        <v>424.5997883913116</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U40" t="n">
-        <v>135.4207008687039</v>
+        <v>524.4742137386056</v>
       </c>
       <c r="V40" t="n">
-        <v>48.81975253256327</v>
+        <v>524.4742137386056</v>
       </c>
       <c r="W40" t="n">
-        <v>48.81975253256327</v>
+        <v>524.4742137386056</v>
       </c>
       <c r="X40" t="n">
-        <v>48.81975253256327</v>
+        <v>524.4742137386056</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.81975253256327</v>
+        <v>524.4742137386056</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1636.530440628162</v>
+        <v>1608.291937657963</v>
       </c>
       <c r="C41" t="n">
-        <v>1267.56792368775</v>
+        <v>1239.329420717551</v>
       </c>
       <c r="D41" t="n">
-        <v>1207.480627192637</v>
+        <v>1239.329420717551</v>
       </c>
       <c r="E41" t="n">
-        <v>1207.480627192637</v>
+        <v>853.5411681193066</v>
       </c>
       <c r="F41" t="n">
-        <v>796.4947224030295</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G41" t="n">
-        <v>378.3070564736033</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H41" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
@@ -7414,10 +7414,10 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S41" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T41" t="n">
-        <v>2221.37302195985</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U41" t="n">
-        <v>1967.593327971733</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V41" t="n">
-        <v>1636.530440628162</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W41" t="n">
-        <v>1636.530440628162</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X41" t="n">
-        <v>1636.530440628162</v>
+        <v>1998.431269633774</v>
       </c>
       <c r="Y41" t="n">
-        <v>1636.530440628162</v>
+        <v>1608.291937657963</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439331</v>
+        <v>882.175553373567</v>
       </c>
       <c r="C42" t="n">
-        <v>547.7315422628061</v>
+        <v>707.72252409244</v>
       </c>
       <c r="D42" t="n">
-        <v>547.7315422628061</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E42" t="n">
-        <v>388.4940872573506</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F42" t="n">
-        <v>359.6156529128699</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G42" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H42" t="n">
         <v>114.9862139017798</v>
@@ -7493,10 +7493,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K42" t="n">
-        <v>285.1110033225004</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L42" t="n">
-        <v>664.2381464478937</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M42" t="n">
         <v>1158.640861843456</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.81975253256327</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="C43" t="n">
-        <v>48.81975253256327</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="D43" t="n">
-        <v>48.81975253256327</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="E43" t="n">
-        <v>48.81975253256327</v>
+        <v>276.6866948089182</v>
       </c>
       <c r="F43" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G43" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H43" t="n">
         <v>48.81975253256327</v>
@@ -7578,43 +7578,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O43" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S43" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="T43" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="U43" t="n">
-        <v>351.4590821581505</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="V43" t="n">
-        <v>276.8093034305806</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="W43" t="n">
-        <v>276.8093034305806</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="X43" t="n">
-        <v>48.81975253256327</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.81975253256327</v>
+        <v>424.5997883913113</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1290.78269632715</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="C44" t="n">
-        <v>1290.78269632715</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="D44" t="n">
-        <v>1290.78269632715</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="E44" t="n">
-        <v>904.9944437289059</v>
+        <v>835.9038449955965</v>
       </c>
       <c r="F44" t="n">
-        <v>494.0085389392984</v>
+        <v>424.9179402059889</v>
       </c>
       <c r="G44" t="n">
-        <v>75.82087300987212</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H44" t="n">
-        <v>75.82087300987212</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X44" t="n">
-        <v>2067.521868367084</v>
+        <v>1998.431269633774</v>
       </c>
       <c r="Y44" t="n">
-        <v>1677.382536391272</v>
+        <v>1608.291937657963</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>829.5376498283632</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C45" t="n">
-        <v>655.0846205472362</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D45" t="n">
-        <v>506.150210885985</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E45" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F45" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
         <v>1557.865593173221</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C46" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D46" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E46" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F46" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G46" t="n">
         <v>48.81975253256327</v>
@@ -7842,16 +7842,16 @@
         <v>351.4590821581505</v>
       </c>
       <c r="V46" t="n">
-        <v>351.4590821581505</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W46" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X46" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y46" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,7 +8072,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42821185443506</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.27660229194302</v>
+        <v>61.27660229194305</v>
       </c>
       <c r="K15" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617109</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>128.4257434817933</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,13 +9491,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>193.2401765302594</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085718</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>275.6680385918563</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K30" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>180.8033201453156</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185861</v>
       </c>
       <c r="P36" t="n">
-        <v>287.1006199003857</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>128.4257434817933</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.27660229194302</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>354.1197822338756</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>143.4192526623987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>326.1924309016296</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>57.00546823003629</v>
       </c>
     </row>
     <row r="12">
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>127.2750392816568</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>40.77475074606141</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.5923888656433</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23469,16 +23469,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>212.3699225553132</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>316.844916728885</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23512,7 +23512,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
         <v>251.2418970482362</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>55.62309421781396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>48.05747717687822</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,10 +23673,10 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617344</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>215.172862047671</v>
       </c>
       <c r="U16" t="n">
-        <v>263.044504722414</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>159.9265751214009</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>119.0270857588332</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23825,10 +23825,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>4.69684554207879</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>65.50479675552441</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>31.886647551595</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
-        <v>80.24038599621278</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
         <v>52.22830032617343</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23946,16 +23946,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>212.619717396297</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>279.5403832745565</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>160.4752923549255</v>
@@ -24022,10 +24022,10 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>116.3947940235421</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U21" t="n">
-        <v>48.05747717687808</v>
+        <v>66.55691803568379</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>157.0547409226243</v>
@@ -24180,16 +24180,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>177.9845675425502</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>154.3192750320482</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>41.66858347344055</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>47.81200070792627</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24287,10 +24287,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>116.4795623923481</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
         <v>157.0547409226243</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
@@ -24417,16 +24417,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>119.6367097176877</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>280.9465830484035</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,19 +24448,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>160.4752923549255</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>24.60129135205347</v>
       </c>
       <c r="Y26" t="n">
-        <v>259.4176075756091</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>141.3464342174088</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>65.50479675552441</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>21.97946373578819</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
         <v>157.0547409226243</v>
@@ -24645,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2872966473816</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>139.9606233844837</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>161.3702607161048</v>
+        <v>51.23398858595328</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>21.7414833360074</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>66.55691803568372</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.2260559463563</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.0736461066132</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>157.0547409226243</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R31" t="n">
         <v>151.1350615014064</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>180.9721179988604</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>118.4498187172362</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>145.2926357173929</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.4092130247883</v>
@@ -25119,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R34" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>177.9845675425501</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>68.82180286983964</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
         <v>326.1924309016296</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>215.2912817598341</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H36" t="n">
         <v>105.5335559456492</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>35.8128782717589</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>34.4022308929372</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>13.45302640759786</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R37" t="n">
         <v>151.1350615014064</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>88.54277519056831</v>
+        <v>286.3487783774432</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
         <v>160.4752923549255</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S38" t="n">
         <v>179.4658614532381</v>
@@ -25447,19 +25447,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>137.955174638333</v>
@@ -25593,22 +25593,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R40" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>171.2849802646508</v>
       </c>
       <c r="V40" t="n">
-        <v>166.4027044710488</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>295.1966180905207</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>184.6829259358931</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>158.3910720113375</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>116.479562392348</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>76.88751609196417</v>
       </c>
       <c r="G43" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>137.955174638333</v>
@@ -25830,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>178.2343623835338</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>41.66858347344055</v>
       </c>
       <c r="H44" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>133.7441830823898</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>106.2795475015858</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25952,19 +25952,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>13.2173247183882</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>636419.6020531827</v>
+        <v>636419.6020531825</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>636419.6020531824</v>
+        <v>636419.6020531825</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>636419.6020531825</v>
+        <v>636419.6020531828</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>636419.6020531827</v>
+        <v>636419.6020531825</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>636419.6020531825</v>
+        <v>636419.6020531824</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>636419.6020531825</v>
+        <v>636419.6020531824</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>636419.6020531825</v>
+        <v>636419.6020531824</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>338927.9918218704</v>
+      </c>
+      <c r="F2" t="n">
+        <v>338927.9918218706</v>
+      </c>
+      <c r="G2" t="n">
         <v>338927.9918218705</v>
       </c>
-      <c r="F2" t="n">
-        <v>338927.9918218705</v>
-      </c>
-      <c r="G2" t="n">
-        <v>338927.9918218704</v>
-      </c>
       <c r="H2" t="n">
-        <v>338927.9918218706</v>
+        <v>338927.9918218707</v>
       </c>
       <c r="I2" t="n">
         <v>338927.9918218705</v>
       </c>
       <c r="J2" t="n">
+        <v>338927.9918218704</v>
+      </c>
+      <c r="K2" t="n">
+        <v>338927.9918218706</v>
+      </c>
+      <c r="L2" t="n">
         <v>338927.9918218705</v>
       </c>
-      <c r="K2" t="n">
-        <v>338927.9918218704</v>
-      </c>
-      <c r="L2" t="n">
-        <v>338927.9918218706</v>
-      </c>
       <c r="M2" t="n">
-        <v>338927.9918218706</v>
+        <v>338927.9918218705</v>
       </c>
       <c r="N2" t="n">
         <v>338927.9918218704</v>
       </c>
       <c r="O2" t="n">
+        <v>338927.9918218706</v>
+      </c>
+      <c r="P2" t="n">
         <v>338927.9918218704</v>
-      </c>
-      <c r="P2" t="n">
-        <v>338927.9918218705</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109307</v>
+        <v>92014.24528109306</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26502,7 +26502,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="M5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="N5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79872.61002278875</v>
+        <v>79872.61002278887</v>
       </c>
       <c r="C6" t="n">
-        <v>160642.0415543368</v>
+        <v>160642.0415543367</v>
       </c>
       <c r="D6" t="n">
-        <v>160642.0415543367</v>
+        <v>160642.0415543366</v>
       </c>
       <c r="E6" t="n">
-        <v>-108425.1959555398</v>
+        <v>-102153.1638391809</v>
       </c>
       <c r="F6" t="n">
-        <v>261010.1031772403</v>
+        <v>267282.1352935995</v>
       </c>
       <c r="G6" t="n">
-        <v>261010.1031772402</v>
+        <v>267282.1352935993</v>
       </c>
       <c r="H6" t="n">
-        <v>261010.1031772404</v>
+        <v>267282.1352935995</v>
       </c>
       <c r="I6" t="n">
-        <v>261010.1031772403</v>
+        <v>267282.1352935993</v>
       </c>
       <c r="J6" t="n">
-        <v>197950.160578134</v>
+        <v>204222.192694493</v>
       </c>
       <c r="K6" t="n">
-        <v>261010.1031772402</v>
+        <v>267282.1352935994</v>
       </c>
       <c r="L6" t="n">
-        <v>261010.1031772404</v>
+        <v>267282.1352935993</v>
       </c>
       <c r="M6" t="n">
-        <v>168995.8578961473</v>
+        <v>175267.8900125062</v>
       </c>
       <c r="N6" t="n">
-        <v>261010.1031772402</v>
+        <v>267282.1352935993</v>
       </c>
       <c r="O6" t="n">
-        <v>261010.1031772402</v>
+        <v>267282.1352935995</v>
       </c>
       <c r="P6" t="n">
-        <v>261010.1031772403</v>
+        <v>267282.1352935992</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445107</v>
       </c>
       <c r="G3" t="n">
         <v>322.6158759445108</v>
@@ -26822,7 +26822,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="M4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="N4" t="n">
         <v>610.2469066570409</v>
@@ -27393,7 +27393,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>356.9080190684723</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>329.0701777466399</v>
       </c>
     </row>
     <row r="3">
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>56.45145718935679</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>100.6355818796405</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>34.50357226344606</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27751,16 +27751,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>85.56267508295639</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>65.39427820545905</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>175.6055225771058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>289.1830869480649</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>1.438530547187924</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>135.7807179558422</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H11" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K11" t="n">
         <v>164.9766803203078</v>
@@ -31773,7 +31773,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O11" t="n">
         <v>218.5211886152591</v>
@@ -31785,13 +31785,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S11" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I12" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K12" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L12" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N12" t="n">
         <v>180.479234222958</v>
@@ -31861,10 +31861,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R12" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S12" t="n">
         <v>12.88941730778304</v>
@@ -31873,7 +31873,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L13" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P13" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R13" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S13" t="n">
         <v>10.13860056042011</v>
@@ -31952,7 +31952,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H14" t="n">
-        <v>13.28237121413757</v>
+        <v>13.28237121413756</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548041</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
       </c>
       <c r="L14" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733201</v>
       </c>
       <c r="M14" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253932</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O14" t="n">
-        <v>218.5211886152591</v>
+        <v>218.521188615259</v>
       </c>
       <c r="P14" t="n">
-        <v>186.5027788167461</v>
+        <v>186.502778816746</v>
       </c>
       <c r="Q14" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517336</v>
       </c>
       <c r="S14" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300719</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500886</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806458</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847292</v>
+        <v>6.70188829084729</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472364</v>
       </c>
       <c r="K15" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
@@ -32098,19 +32098,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876454</v>
       </c>
       <c r="R15" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858958</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T15" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518917</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214776</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704291</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815273</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L16" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223817</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526552</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613036</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188941</v>
       </c>
       <c r="P16" t="n">
-        <v>70.36199366501262</v>
+        <v>70.36199366501259</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762111</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576312</v>
+        <v>26.1583298757631</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T16" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228196</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K18" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R18" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L19" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K24" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R24" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L25" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P25" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H26" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K26" t="n">
         <v>164.9766803203078</v>
@@ -32958,7 +32958,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N26" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O26" t="n">
         <v>218.5211886152591</v>
@@ -32970,13 +32970,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S26" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H27" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K27" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L27" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M27" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N27" t="n">
         <v>180.479234222958</v>
@@ -33046,10 +33046,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R27" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
@@ -33058,7 +33058,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,40 +33095,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J28" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K28" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L28" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P28" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R28" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
@@ -33137,7 +33137,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H29" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K29" t="n">
         <v>164.9766803203078</v>
@@ -33195,7 +33195,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N29" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O29" t="n">
         <v>218.5211886152591</v>
@@ -33207,13 +33207,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S29" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H30" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K30" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L30" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N30" t="n">
         <v>180.479234222958</v>
@@ -33283,10 +33283,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R30" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
@@ -33295,7 +33295,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,40 +33332,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J31" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K31" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L31" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P31" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R31" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
@@ -33374,7 +33374,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H32" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K32" t="n">
         <v>164.9766803203078</v>
@@ -33432,7 +33432,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O32" t="n">
         <v>218.5211886152591</v>
@@ -33444,13 +33444,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S32" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H33" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K33" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L33" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M33" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N33" t="n">
         <v>180.479234222958</v>
@@ -33520,10 +33520,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R33" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
@@ -33532,7 +33532,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,40 +33569,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J34" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K34" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L34" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P34" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R34" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
@@ -33611,7 +33611,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H35" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K35" t="n">
         <v>164.9766803203078</v>
@@ -33669,7 +33669,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N35" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O35" t="n">
         <v>218.5211886152591</v>
@@ -33681,13 +33681,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S35" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H36" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K36" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L36" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N36" t="n">
         <v>180.479234222958</v>
@@ -33757,10 +33757,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R36" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
@@ -33769,7 +33769,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,40 +33806,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J37" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K37" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L37" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P37" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R37" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
@@ -33848,7 +33848,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H38" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I38" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J38" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K38" t="n">
         <v>164.9766803203078</v>
@@ -33906,7 +33906,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N38" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O38" t="n">
         <v>218.5211886152591</v>
@@ -33918,13 +33918,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R38" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S38" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T38" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U38" t="n">
         <v>0.1037558596002446</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H39" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I39" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J39" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K39" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L39" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M39" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N39" t="n">
         <v>180.479234222958</v>
@@ -33994,10 +33994,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R39" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S39" t="n">
         <v>12.88941730778304</v>
@@ -34006,7 +34006,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,40 +34043,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H40" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I40" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J40" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K40" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L40" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M40" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N40" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O40" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P40" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R40" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S40" t="n">
         <v>10.13860056042011</v>
@@ -34085,7 +34085,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H41" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I41" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J41" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K41" t="n">
         <v>164.9766803203078</v>
@@ -34143,7 +34143,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N41" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O41" t="n">
         <v>218.5211886152591</v>
@@ -34155,13 +34155,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R41" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S41" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T41" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U41" t="n">
         <v>0.1037558596002446</v>
@@ -34201,25 +34201,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H42" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I42" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J42" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K42" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L42" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M42" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N42" t="n">
         <v>180.479234222958</v>
@@ -34231,10 +34231,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R42" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S42" t="n">
         <v>12.88941730778304</v>
@@ -34243,7 +34243,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,40 +34280,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H43" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I43" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J43" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K43" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L43" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M43" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N43" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O43" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P43" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R43" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S43" t="n">
         <v>10.13860056042011</v>
@@ -34322,7 +34322,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,7 +34792,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K11" t="n">
         <v>269.032241846492</v>
@@ -35418,7 +35418,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N11" t="n">
         <v>439.3515785419015</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009466</v>
+        <v>48.64100594280298</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N12" t="n">
         <v>528.4798964831782</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L13" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N13" t="n">
         <v>133.158287785359</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471585</v>
+        <v>98.1275717547158</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L14" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537833</v>
       </c>
       <c r="M14" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N14" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419014</v>
       </c>
       <c r="O14" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P14" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329591</v>
       </c>
       <c r="Q14" t="n">
         <v>130.0651205780292</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N15" t="n">
         <v>528.4798964831782</v>
@@ -35746,7 +35746,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L16" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N16" t="n">
-        <v>133.158287785359</v>
+        <v>133.1582877853589</v>
       </c>
       <c r="O16" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990608</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O18" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>126.9612417926717</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
         <v>158.6748764185921</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K21" t="n">
         <v>238.6780311009465</v>
@@ -36211,13 +36211,13 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N21" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
-        <v>191.7756748411377</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
         <v>158.6748764185921</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.81443304846582</v>
+        <v>33.45228430891415</v>
       </c>
       <c r="K24" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>309.3596570595963</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N24" t="n">
         <v>528.4798964831782</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
@@ -36603,7 +36603,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M26" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N26" t="n">
         <v>439.3515785419015</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N27" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L28" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M28" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N28" t="n">
         <v>133.158287785359</v>
@@ -36770,7 +36770,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
@@ -36840,7 +36840,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M29" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N29" t="n">
         <v>439.3515785419015</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N30" t="n">
         <v>528.4798964831782</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L31" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M31" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N31" t="n">
         <v>133.158287785359</v>
@@ -37007,7 +37007,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
@@ -37077,7 +37077,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M32" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N32" t="n">
         <v>439.3515785419015</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L33" t="n">
-        <v>382.95671022767</v>
+        <v>192.9196850695264</v>
       </c>
       <c r="M33" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
         <v>528.4798964831782</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L34" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M34" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N34" t="n">
         <v>133.158287785359</v>
@@ -37244,7 +37244,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
@@ -37314,7 +37314,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M35" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N35" t="n">
         <v>439.3515785419015</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077443</v>
       </c>
       <c r="P36" t="n">
-        <v>285.636118211264</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L37" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M37" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N37" t="n">
         <v>133.158287785359</v>
@@ -37481,7 +37481,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K38" t="n">
         <v>269.032241846492</v>
@@ -37551,7 +37551,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M38" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N38" t="n">
         <v>439.3515785419015</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K39" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M39" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N39" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P39" t="n">
-        <v>126.9612417926717</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
         <v>158.6748764185921</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L40" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M40" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N40" t="n">
         <v>133.158287785359</v>
@@ -37718,7 +37718,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P40" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
@@ -37788,7 +37788,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M41" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N41" t="n">
         <v>439.3515785419015</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L43" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M43" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N43" t="n">
         <v>133.158287785359</v>
@@ -37955,7 +37955,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P43" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>403.2573043735003</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
